--- a/sse/综合数据分析（天）/央行_汇金_财政部_证监会操作.xlsx
+++ b/sse/综合数据分析（天）/央行_汇金_财政部_证监会操作.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="24">
   <si>
     <t>期限</t>
   </si>
@@ -95,6 +95,9 @@
   <si>
     <t>逆回购</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500亿元</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,20 +277,26 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -621,63 +630,63 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>42201.407256944447</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>42208.407175925924</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>200</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="3">
-        <f>A2+7</f>
-        <v>42208.407256944447</v>
+        <f t="shared" ref="F2:F33" si="0">A2+7</f>
+        <v>42215.407175925924</v>
       </c>
       <c r="G2" s="3">
-        <f>A2+7</f>
-        <v>42208.407256944447</v>
+        <f t="shared" ref="G2:G33" si="1">A2+7</f>
+        <v>42215.407175925924</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
-        <v>42199.407141203701</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="13">
+        <v>42206.407361111109</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
+      <c r="E3" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F66" si="0">A3+7</f>
-        <v>42206.407141203701</v>
+        <f t="shared" si="0"/>
+        <v>42213.407361111109</v>
       </c>
       <c r="G3" s="3">
-        <f>A3+7</f>
-        <v>42206.407141203701</v>
+        <f t="shared" si="1"/>
+        <v>42213.407361111109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
-        <v>42194.407071759262</v>
+        <v>42201.407256944447</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2">
         <v>2.5000000000000001E-2</v>
@@ -687,22 +696,22 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>42201.407071759262</v>
+        <v>42208.407256944447</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G67" si="1">A4+7</f>
-        <v>42201.407071759262</v>
+        <f t="shared" si="1"/>
+        <v>42208.407256944447</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
-        <v>42192.407129629632</v>
+        <v>42199.407141203701</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
         <v>2.5000000000000001E-2</v>
@@ -712,16 +721,16 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>42199.407129629632</v>
+        <v>42206.407141203701</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="1"/>
-        <v>42199.407129629632</v>
+        <v>42206.407141203701</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
-        <v>42187.407094907408</v>
+        <v>42194.407071759262</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -737,16 +746,16 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>42194.407094907408</v>
+        <v>42201.407071759262</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
-        <v>42194.407094907408</v>
+        <v>42201.407071759262</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>42185.407060185185</v>
+        <v>42192.407129629632</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -762,16 +771,16 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>42192.407060185185</v>
+        <v>42199.407129629632</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
-        <v>42192.407060185185</v>
+        <v>42199.407129629632</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
-        <v>42180.406828703701</v>
+        <v>42187.407094907408</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -780,148 +789,148 @@
         <v>350</v>
       </c>
       <c r="D8" s="2">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>42187.406828703701</v>
+        <v>42194.407094907408</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
-        <v>42187.406828703701</v>
+        <v>42194.407094907408</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
-        <v>42110.407083333332</v>
+        <v>42185.407060185185</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D9" s="2">
-        <v>3.3500000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>42117.407083333332</v>
+        <v>42192.407060185185</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
-        <v>42117.407083333332</v>
+        <v>42192.407060185185</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
-        <v>42103.407071759262</v>
+        <v>42180.406828703701</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="D10" s="2">
-        <v>3.4500000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>42110.407071759262</v>
+        <v>42187.406828703701</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
-        <v>42110.407071759262</v>
+        <v>42187.406828703701</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
-        <v>42101.406851851854</v>
+        <v>42110.407083333332</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
-        <v>3.4500000000000003E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
-        <v>42108.406851851854</v>
+        <v>42117.407083333332</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="1"/>
-        <v>42108.406851851854</v>
+        <v>42117.407083333332</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
-        <v>42096.407037037039</v>
+        <v>42103.407071759262</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2">
-        <v>3.5499999999999997E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>42103.407037037039</v>
+        <v>42110.407071759262</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="1"/>
-        <v>42103.407037037039</v>
+        <v>42110.407071759262</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
-        <v>42094.407152777778</v>
+        <v>42101.406851851854</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2">
-        <v>3.5499999999999997E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>42101.407152777778</v>
+        <v>42108.406851851854</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>42101.407152777778</v>
+        <v>42108.406851851854</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
-        <v>42089.407141203701</v>
+        <v>42096.407037037039</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -937,22 +946,22 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>42096.407141203701</v>
+        <v>42103.407037037039</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="1"/>
-        <v>42096.407141203701</v>
+        <v>42103.407037037039</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
-        <v>42087.406886574077</v>
+        <v>42094.407152777778</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D15" s="2">
         <v>3.5499999999999997E-2</v>
@@ -962,41 +971,41 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>42094.406886574077</v>
+        <v>42101.407152777778</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="1"/>
-        <v>42094.406886574077</v>
+        <v>42101.407152777778</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
-        <v>42082.40729166667</v>
+        <v>42089.407141203701</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="D16" s="2">
-        <v>3.6499999999999998E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>42089.40729166667</v>
+        <v>42096.407141203701</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="1"/>
-        <v>42089.40729166667</v>
+        <v>42096.407141203701</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
-        <v>42080.40697916667</v>
+        <v>42087.406886574077</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -1005,79 +1014,79 @@
         <v>200</v>
       </c>
       <c r="D17" s="2">
-        <v>3.6499999999999998E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>42087.40697916667</v>
+        <v>42094.406886574077</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>42087.40697916667</v>
+        <v>42094.406886574077</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
-        <v>42075.407129629632</v>
+        <v>42082.40729166667</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D18" s="2">
-        <v>3.7499999999999999E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>42082.407129629632</v>
+        <v>42089.40729166667</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="1"/>
-        <v>42082.407129629632</v>
+        <v>42089.40729166667</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
-        <v>42073.407187500001</v>
+        <v>42080.40697916667</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2">
-        <v>3.7499999999999999E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>42080.407187500001</v>
+        <v>42087.40697916667</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="1"/>
-        <v>42080.407187500001</v>
+        <v>42087.40697916667</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
-        <v>42068.408182870371</v>
+        <v>42075.407129629632</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D20" s="2">
         <v>3.7499999999999999E-2</v>
@@ -1087,16 +1096,16 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>42075.408182870371</v>
+        <v>42082.407129629632</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="1"/>
-        <v>42075.408182870371</v>
+        <v>42082.407129629632</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
-        <v>42066.407048611109</v>
+        <v>42073.407187500001</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -1112,97 +1121,97 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>42073.407048611109</v>
+        <v>42080.407187500001</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="1"/>
-        <v>42073.407048611109</v>
+        <v>42080.407187500001</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
-        <v>42061.407118055555</v>
+        <v>42068.408182870371</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D22" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>42068.407118055555</v>
+        <v>42075.408182870371</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="1"/>
-        <v>42068.407118055555</v>
+        <v>42075.408182870371</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
-        <v>42047.407164351855</v>
+        <v>42066.407048611109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="D23" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>42054.407164351855</v>
+        <v>42073.407048611109</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="1"/>
-        <v>42054.407164351855</v>
+        <v>42073.407048611109</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
-        <v>42047.407164351855</v>
+        <v>42061.407118055555</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="D24" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>42054.407164351855</v>
+        <v>42068.407118055555</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="1"/>
-        <v>42054.407164351855</v>
+        <v>42068.407118055555</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
-        <v>42045.406574074077</v>
+        <v>42047.407164351855</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="D25" s="2">
         <v>4.1000000000000002E-2</v>
@@ -1212,22 +1221,22 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>42052.406574074077</v>
+        <v>42054.407164351855</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="1"/>
-        <v>42052.406574074077</v>
+        <v>42054.407164351855</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
-        <v>42045.406574074077</v>
+        <v>42047.407164351855</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="1">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="D26" s="2">
         <v>4.3999999999999997E-2</v>
@@ -1237,72 +1246,72 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>42052.406574074077</v>
+        <v>42054.407164351855</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="1"/>
-        <v>42052.406574074077</v>
+        <v>42054.407164351855</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3">
-        <v>42040.407546296294</v>
+        <v>42045.406574074077</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>42047.407546296294</v>
+        <v>42052.406574074077</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>42047.407546296294</v>
+        <v>42052.406574074077</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">
-        <v>42038.41715277778</v>
+        <v>42045.406574074077</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="D28" s="2">
-        <v>3.85E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>42045.41715277778</v>
+        <v>42052.406574074077</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="1"/>
-        <v>42045.41715277778</v>
+        <v>42052.406574074077</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3">
-        <v>42038.41715277778</v>
+        <v>42040.407546296294</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="D29" s="2">
         <v>4.8000000000000001E-2</v>
@@ -1312,72 +1321,72 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>42045.41715277778</v>
+        <v>42047.407546296294</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="1"/>
-        <v>42045.41715277778</v>
+        <v>42047.407546296294</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
-        <v>42033.421493055554</v>
+        <v>42038.41715277778</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="D30" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>42040.421493055554</v>
+        <v>42045.41715277778</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="1"/>
-        <v>42040.421493055554</v>
+        <v>42045.41715277778</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
-        <v>42031.437037037038</v>
+        <v>42038.41715277778</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="D31" s="2">
-        <v>3.85E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="0"/>
-        <v>42038.437037037038</v>
+        <v>42045.41715277778</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="1"/>
-        <v>42038.437037037038</v>
+        <v>42045.41715277778</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
-        <v>42031.437037037038</v>
+        <v>42033.421493055554</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="D32" s="2">
         <v>4.8000000000000001E-2</v>
@@ -1387,22 +1396,22 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>42038.437037037038</v>
+        <v>42040.421493055554</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="1"/>
-        <v>42038.437037037038</v>
+        <v>42040.421493055554</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
-        <v>42026.429178240738</v>
+        <v>42031.437037037038</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D33" s="2">
         <v>3.85E-2</v>
@@ -1412,97 +1421,97 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>42033.429178240738</v>
+        <v>42038.437037037038</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
-        <v>42033.429178240738</v>
+        <v>42038.437037037038</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
-        <v>41968.422962962963</v>
+        <v>42031.437037037038</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D34" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>41975.422962962963</v>
+        <f t="shared" ref="F34:F65" si="2">A34+7</f>
+        <v>42038.437037037038</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="1"/>
-        <v>41975.422962962963</v>
+        <f t="shared" ref="G34:G65" si="3">A34+7</f>
+        <v>42038.437037037038</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3">
-        <v>41963.424317129633</v>
+        <v>42026.429178240738</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D35" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="0"/>
-        <v>41970.424317129633</v>
+        <f t="shared" si="2"/>
+        <v>42033.429178240738</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="1"/>
-        <v>41970.424317129633</v>
+        <f t="shared" si="3"/>
+        <v>42033.429178240738</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3">
-        <v>41961.431979166664</v>
+        <v>41968.422962962963</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="0"/>
-        <v>41968.431979166664</v>
+        <f t="shared" si="2"/>
+        <v>41975.422962962963</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="1"/>
-        <v>41968.431979166664</v>
+        <f t="shared" si="3"/>
+        <v>41975.422962962963</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3">
-        <v>41956.423981481479</v>
+        <v>41963.424317129633</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D37" s="2">
         <v>3.4000000000000002E-2</v>
@@ -1511,17 +1520,17 @@
         <v>20</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="0"/>
-        <v>41963.423981481479</v>
+        <f t="shared" si="2"/>
+        <v>41970.424317129633</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="1"/>
-        <v>41963.423981481479</v>
+        <f t="shared" si="3"/>
+        <v>41970.424317129633</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3">
-        <v>41954.424814814818</v>
+        <v>41961.431979166664</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
@@ -1536,17 +1545,17 @@
         <v>20</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="0"/>
-        <v>41961.424814814818</v>
+        <f t="shared" si="2"/>
+        <v>41968.431979166664</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="1"/>
-        <v>41961.424814814818</v>
+        <f t="shared" si="3"/>
+        <v>41968.431979166664</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3">
-        <v>41949.423402777778</v>
+        <v>41956.423981481479</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
@@ -1561,17 +1570,17 @@
         <v>20</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="0"/>
-        <v>41956.423402777778</v>
+        <f t="shared" si="2"/>
+        <v>41963.423981481479</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="1"/>
-        <v>41956.423402777778</v>
+        <f t="shared" si="3"/>
+        <v>41963.423981481479</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3">
-        <v>41947.426076388889</v>
+        <v>41954.424814814818</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>5</v>
@@ -1586,17 +1595,17 @@
         <v>20</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="0"/>
-        <v>41954.426076388889</v>
+        <f t="shared" si="2"/>
+        <v>41961.424814814818</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="1"/>
-        <v>41954.426076388889</v>
+        <f t="shared" si="3"/>
+        <v>41961.424814814818</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3">
-        <v>41942.424189814818</v>
+        <v>41949.423402777778</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
@@ -1611,17 +1620,17 @@
         <v>20</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="0"/>
-        <v>41949.424189814818</v>
+        <f t="shared" si="2"/>
+        <v>41956.423402777778</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="1"/>
-        <v>41949.424189814818</v>
+        <f t="shared" si="3"/>
+        <v>41956.423402777778</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3">
-        <v>41940.423668981479</v>
+        <v>41947.426076388889</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>5</v>
@@ -1636,17 +1645,17 @@
         <v>20</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="0"/>
-        <v>41947.423668981479</v>
+        <f t="shared" si="2"/>
+        <v>41954.426076388889</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="1"/>
-        <v>41947.423668981479</v>
+        <f t="shared" si="3"/>
+        <v>41954.426076388889</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3">
-        <v>41935.426539351851</v>
+        <v>41942.424189814818</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
@@ -1661,17 +1670,17 @@
         <v>20</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="0"/>
-        <v>41942.426539351851</v>
+        <f t="shared" si="2"/>
+        <v>41949.424189814818</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="1"/>
-        <v>41942.426539351851</v>
+        <f t="shared" si="3"/>
+        <v>41949.424189814818</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3">
-        <v>41933.424756944441</v>
+        <v>41940.423668981479</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
@@ -1686,17 +1695,17 @@
         <v>20</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="0"/>
-        <v>41940.424756944441</v>
+        <f t="shared" si="2"/>
+        <v>41947.423668981479</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="1"/>
-        <v>41940.424756944441</v>
+        <f t="shared" si="3"/>
+        <v>41947.423668981479</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3">
-        <v>41928.425937499997</v>
+        <v>41935.426539351851</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
@@ -1711,17 +1720,17 @@
         <v>20</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="0"/>
-        <v>41935.425937499997</v>
+        <f t="shared" si="2"/>
+        <v>41942.426539351851</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="1"/>
-        <v>41935.425937499997</v>
+        <f t="shared" si="3"/>
+        <v>41942.426539351851</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3">
-        <v>41926.425763888888</v>
+        <v>41933.424756944441</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>5</v>
@@ -1736,17 +1745,17 @@
         <v>20</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="0"/>
-        <v>41933.425763888888</v>
+        <f t="shared" si="2"/>
+        <v>41940.424756944441</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="1"/>
-        <v>41933.425763888888</v>
+        <f t="shared" si="3"/>
+        <v>41940.424756944441</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3">
-        <v>41921.428252314814</v>
+        <v>41928.425937499997</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>5</v>
@@ -1755,23 +1764,23 @@
         <v>200</v>
       </c>
       <c r="D47" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="0"/>
-        <v>41928.428252314814</v>
+        <f t="shared" si="2"/>
+        <v>41935.425937499997</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="1"/>
-        <v>41928.428252314814</v>
+        <f t="shared" si="3"/>
+        <v>41935.425937499997</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3">
-        <v>41912.421087962961</v>
+        <v>41926.425763888888</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>5</v>
@@ -1780,29 +1789,29 @@
         <v>200</v>
       </c>
       <c r="D48" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="0"/>
-        <v>41919.421087962961</v>
+        <f t="shared" si="2"/>
+        <v>41933.425763888888</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="1"/>
-        <v>41919.421087962961</v>
+        <f t="shared" si="3"/>
+        <v>41933.425763888888</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3">
-        <v>41907.423333333332</v>
+        <v>41921.428252314814</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D49" s="2">
         <v>3.5000000000000003E-2</v>
@@ -1811,23 +1820,23 @@
         <v>20</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="0"/>
-        <v>41914.423333333332</v>
+        <f t="shared" si="2"/>
+        <v>41928.428252314814</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="1"/>
-        <v>41914.423333333332</v>
+        <f t="shared" si="3"/>
+        <v>41928.428252314814</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3">
-        <v>41905.434953703705</v>
+        <v>41912.421087962961</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="1">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D50" s="2">
         <v>3.5000000000000003E-2</v>
@@ -1836,23 +1845,23 @@
         <v>20</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="0"/>
-        <v>41912.434953703705</v>
+        <f t="shared" si="2"/>
+        <v>41919.421087962961</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="1"/>
-        <v>41912.434953703705</v>
+        <f t="shared" si="3"/>
+        <v>41919.421087962961</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3">
-        <v>41900.419548611113</v>
+        <v>41907.423333333332</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="1">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D51" s="2">
         <v>3.5000000000000003E-2</v>
@@ -1861,42 +1870,42 @@
         <v>20</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="0"/>
-        <v>41907.419548611113</v>
+        <f t="shared" si="2"/>
+        <v>41914.423333333332</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="1"/>
-        <v>41907.419548611113</v>
+        <f t="shared" si="3"/>
+        <v>41914.423333333332</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3">
-        <v>41898.433900462966</v>
+        <v>41905.434953703705</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="1">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D52" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="0"/>
-        <v>41905.433900462966</v>
+        <f t="shared" si="2"/>
+        <v>41912.434953703705</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="1"/>
-        <v>41905.433900462966</v>
+        <f t="shared" si="3"/>
+        <v>41912.434953703705</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3">
-        <v>41893.436296296299</v>
+        <v>41900.419548611113</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>5</v>
@@ -1905,23 +1914,23 @@
         <v>100</v>
       </c>
       <c r="D53" s="2">
-        <v>3.6999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="0"/>
-        <v>41900.436296296299</v>
+        <f t="shared" si="2"/>
+        <v>41907.419548611113</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="1"/>
-        <v>41900.436296296299</v>
+        <f t="shared" si="3"/>
+        <v>41907.419548611113</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3">
-        <v>41891.435300925928</v>
+        <v>41898.433900462966</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>5</v>
@@ -1936,23 +1945,23 @@
         <v>20</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="0"/>
-        <v>41898.435300925928</v>
+        <f t="shared" si="2"/>
+        <v>41905.433900462966</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="1"/>
-        <v>41898.435300925928</v>
+        <f t="shared" si="3"/>
+        <v>41905.433900462966</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3">
-        <v>41886.428703703707</v>
+        <v>41893.436296296299</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2">
         <v>3.6999999999999998E-2</v>
@@ -1961,23 +1970,23 @@
         <v>20</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="0"/>
-        <v>41893.428703703707</v>
+        <f t="shared" si="2"/>
+        <v>41900.436296296299</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="1"/>
-        <v>41893.428703703707</v>
+        <f t="shared" si="3"/>
+        <v>41900.436296296299</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3">
-        <v>41884.429351851853</v>
+        <v>41891.435300925928</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D56" s="2">
         <v>3.6999999999999998E-2</v>
@@ -1986,23 +1995,23 @@
         <v>20</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="0"/>
-        <v>41891.429351851853</v>
+        <f t="shared" si="2"/>
+        <v>41898.435300925928</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="1"/>
-        <v>41891.429351851853</v>
+        <f t="shared" si="3"/>
+        <v>41898.435300925928</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3">
-        <v>41879.428900462961</v>
+        <v>41886.428703703707</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2011,23 +2020,23 @@
         <v>20</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="0"/>
-        <v>41886.428900462961</v>
+        <f t="shared" si="2"/>
+        <v>41893.428703703707</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="1"/>
-        <v>41886.428900462961</v>
+        <f t="shared" si="3"/>
+        <v>41893.428703703707</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3">
-        <v>41877.423043981478</v>
+        <v>41884.429351851853</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="1">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D58" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2036,17 +2045,17 @@
         <v>20</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="0"/>
-        <v>41884.423043981478</v>
+        <f t="shared" si="2"/>
+        <v>41891.429351851853</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="1"/>
-        <v>41884.423043981478</v>
+        <f t="shared" si="3"/>
+        <v>41891.429351851853</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3">
-        <v>41872.423993055556</v>
+        <v>41879.428900462961</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
@@ -2061,23 +2070,23 @@
         <v>20</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="0"/>
-        <v>41879.423993055556</v>
+        <f t="shared" si="2"/>
+        <v>41886.428900462961</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="1"/>
-        <v>41879.423993055556</v>
+        <f t="shared" si="3"/>
+        <v>41886.428900462961</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3">
-        <v>41870.42528935185</v>
+        <v>41877.423043981478</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2086,23 +2095,23 @@
         <v>20</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="0"/>
-        <v>41877.42528935185</v>
+        <f t="shared" si="2"/>
+        <v>41884.423043981478</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="1"/>
-        <v>41877.42528935185</v>
+        <f t="shared" si="3"/>
+        <v>41884.423043981478</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3">
-        <v>41865.432037037041</v>
+        <v>41872.423993055556</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2111,23 +2120,23 @@
         <v>20</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="0"/>
-        <v>41872.432037037041</v>
+        <f t="shared" si="2"/>
+        <v>41879.423993055556</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="1"/>
-        <v>41872.432037037041</v>
+        <f t="shared" si="3"/>
+        <v>41879.423993055556</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3">
-        <v>41863.421099537038</v>
+        <v>41870.42528935185</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D62" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2136,23 +2145,23 @@
         <v>20</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="0"/>
-        <v>41870.421099537038</v>
+        <f t="shared" si="2"/>
+        <v>41877.42528935185</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="1"/>
-        <v>41870.421099537038</v>
+        <f t="shared" si="3"/>
+        <v>41877.42528935185</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3">
-        <v>41858.434027777781</v>
+        <v>41865.432037037041</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D63" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2161,23 +2170,23 @@
         <v>20</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="0"/>
-        <v>41865.434027777781</v>
+        <f t="shared" si="2"/>
+        <v>41872.432037037041</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="1"/>
-        <v>41865.434027777781</v>
+        <f t="shared" si="3"/>
+        <v>41872.432037037041</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3">
-        <v>41856.427905092591</v>
+        <v>41863.421099537038</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D64" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2186,23 +2195,23 @@
         <v>20</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="0"/>
-        <v>41863.427905092591</v>
+        <f t="shared" si="2"/>
+        <v>41870.421099537038</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="1"/>
-        <v>41863.427905092591</v>
+        <f t="shared" si="3"/>
+        <v>41870.421099537038</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3">
-        <v>41851.436597222222</v>
+        <v>41858.434027777781</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D65" s="2">
         <v>3.6999999999999998E-2</v>
@@ -2211,73 +2220,73 @@
         <v>20</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="0"/>
-        <v>41858.436597222222</v>
+        <f t="shared" si="2"/>
+        <v>41865.434027777781</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="1"/>
-        <v>41858.436597222222</v>
+        <f t="shared" si="3"/>
+        <v>41865.434027777781</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3">
-        <v>41849.424791666665</v>
+        <v>41856.427905092591</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D66" s="2">
-        <v>0.04</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="0"/>
-        <v>41856.424791666665</v>
+        <f t="shared" ref="F66:F82" si="4">A66+7</f>
+        <v>41863.427905092591</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="1"/>
-        <v>41856.424791666665</v>
+        <f t="shared" ref="G66:G82" si="5">A66+7</f>
+        <v>41863.427905092591</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3">
-        <v>41837.425659722219</v>
+        <v>41851.436597222222</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="D67" s="2">
-        <v>0.04</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" ref="F67:F81" si="2">A67+7</f>
-        <v>41844.425659722219</v>
+        <f t="shared" si="4"/>
+        <v>41858.436597222222</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="1"/>
-        <v>41844.425659722219</v>
+        <f t="shared" si="5"/>
+        <v>41858.436597222222</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3">
-        <v>41835.430173611108</v>
+        <v>41849.424791666665</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C68" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D68" s="2">
         <v>0.04</v>
@@ -2286,23 +2295,23 @@
         <v>20</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="2"/>
-        <v>41842.430173611108</v>
+        <f t="shared" si="4"/>
+        <v>41856.424791666665</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:G80" si="3">A68+7</f>
-        <v>41842.430173611108</v>
+        <f t="shared" si="5"/>
+        <v>41856.424791666665</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3">
-        <v>41830.436064814814</v>
+        <v>41837.425659722219</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="1">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D69" s="2">
         <v>0.04</v>
@@ -2311,17 +2320,17 @@
         <v>20</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" si="2"/>
-        <v>41837.436064814814</v>
+        <f t="shared" si="4"/>
+        <v>41844.425659722219</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="3"/>
-        <v>41837.436064814814</v>
+        <f t="shared" si="5"/>
+        <v>41844.425659722219</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3">
-        <v>41828.471030092594</v>
+        <v>41835.430173611108</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>19</v>
@@ -2336,17 +2345,17 @@
         <v>20</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="2"/>
-        <v>41835.471030092594</v>
+        <f t="shared" si="4"/>
+        <v>41842.430173611108</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="3"/>
-        <v>41835.471030092594</v>
+        <f t="shared" si="5"/>
+        <v>41842.430173611108</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
-        <v>41823.428726851853</v>
+        <v>41830.436064814814</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>19</v>
@@ -2361,17 +2370,17 @@
         <v>20</v>
       </c>
       <c r="F71" s="3">
-        <f t="shared" si="2"/>
-        <v>41830.428726851853</v>
+        <f t="shared" si="4"/>
+        <v>41837.436064814814</v>
       </c>
       <c r="G71" s="3">
-        <f t="shared" si="3"/>
-        <v>41830.428726851853</v>
+        <f t="shared" si="5"/>
+        <v>41837.436064814814</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3">
-        <v>41821.428506944445</v>
+        <v>41828.471030092594</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>19</v>
@@ -2386,23 +2395,23 @@
         <v>20</v>
       </c>
       <c r="F72" s="3">
-        <f t="shared" si="2"/>
-        <v>41828.428506944445</v>
+        <f t="shared" si="4"/>
+        <v>41835.471030092594</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="3"/>
-        <v>41828.428506944445</v>
+        <f t="shared" si="5"/>
+        <v>41835.471030092594</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3">
-        <v>41814.430717592593</v>
+        <v>41823.428726851853</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="1">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D73" s="2">
         <v>0.04</v>
@@ -2411,17 +2420,17 @@
         <v>20</v>
       </c>
       <c r="F73" s="3">
-        <f t="shared" si="2"/>
-        <v>41821.430717592593</v>
+        <f t="shared" si="4"/>
+        <v>41830.428726851853</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="3"/>
-        <v>41821.430717592593</v>
+        <f t="shared" si="5"/>
+        <v>41830.428726851853</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3">
-        <v>41809.426319444443</v>
+        <v>41821.428506944445</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>19</v>
@@ -2436,23 +2445,23 @@
         <v>20</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="2"/>
-        <v>41816.426319444443</v>
+        <f t="shared" si="4"/>
+        <v>41828.428506944445</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="3"/>
-        <v>41816.426319444443</v>
+        <f t="shared" si="5"/>
+        <v>41828.428506944445</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3">
-        <v>41807.428078703706</v>
+        <v>41814.430717592593</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="1">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="D75" s="2">
         <v>0.04</v>
@@ -2461,23 +2470,23 @@
         <v>20</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" si="2"/>
-        <v>41814.428078703706</v>
+        <f t="shared" si="4"/>
+        <v>41821.430717592593</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="3"/>
-        <v>41814.428078703706</v>
+        <f t="shared" si="5"/>
+        <v>41821.430717592593</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3">
-        <v>41802.428738425922</v>
+        <v>41809.426319444443</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D76" s="2">
         <v>0.04</v>
@@ -2486,23 +2495,23 @@
         <v>20</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="2"/>
-        <v>41809.428738425922</v>
+        <f t="shared" si="4"/>
+        <v>41816.426319444443</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="3"/>
-        <v>41809.428738425922</v>
+        <f t="shared" si="5"/>
+        <v>41816.426319444443</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3">
-        <v>41800.425833333335</v>
+        <v>41807.428078703706</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D77" s="2">
         <v>0.04</v>
@@ -2511,17 +2520,17 @@
         <v>20</v>
       </c>
       <c r="F77" s="3">
-        <f t="shared" si="2"/>
-        <v>41807.425833333335</v>
+        <f t="shared" si="4"/>
+        <v>41814.428078703706</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="3"/>
-        <v>41807.425833333335</v>
+        <f t="shared" si="5"/>
+        <v>41814.428078703706</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3">
-        <v>41795.441620370373</v>
+        <v>41802.428738425922</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>19</v>
@@ -2536,23 +2545,23 @@
         <v>20</v>
       </c>
       <c r="F78" s="3">
-        <f t="shared" si="2"/>
-        <v>41802.441620370373</v>
+        <f t="shared" si="4"/>
+        <v>41809.428738425922</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="3"/>
-        <v>41802.441620370373</v>
+        <f t="shared" si="5"/>
+        <v>41809.428738425922</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3">
-        <v>41793.443240740744</v>
+        <v>41800.425833333335</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C79" s="1">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D79" s="2">
         <v>0.04</v>
@@ -2561,23 +2570,23 @@
         <v>20</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="2"/>
-        <v>41800.443240740744</v>
+        <f t="shared" si="4"/>
+        <v>41807.425833333335</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="3"/>
-        <v>41800.443240740744</v>
+        <f t="shared" si="5"/>
+        <v>41807.425833333335</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" thickBot="1">
       <c r="A80" s="3">
-        <v>41788.43922453704</v>
+        <v>41795.441620370373</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D80" s="2">
         <v>0.04</v>
@@ -2586,41 +2595,91 @@
         <v>20</v>
       </c>
       <c r="F80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>41802.441620370373</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="5"/>
+        <v>41802.441620370373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A81" s="3">
+        <v>41793.443240740744</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="17">
+        <v>300</v>
+      </c>
+      <c r="D81" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="3">
+        <f t="shared" si="4"/>
+        <v>41800.443240740744</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="5"/>
+        <v>41800.443240740744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" thickBot="1">
+      <c r="A82" s="3">
+        <v>41788.43922453704</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="17">
+        <v>100</v>
+      </c>
+      <c r="D82" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="3">
+        <f t="shared" si="4"/>
         <v>41795.43922453704</v>
       </c>
-      <c r="G80" s="3">
-        <f t="shared" si="3"/>
+      <c r="G82" s="3">
+        <f t="shared" si="5"/>
         <v>41795.43922453704</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A81" s="16">
-        <v>42206.407361111109</v>
-      </c>
-      <c r="B81" s="12" t="s">
+    <row r="83" spans="1:7">
+      <c r="A83" s="3">
+        <v>42213.407141203701</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="14">
+      <c r="C83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="3">
-        <f t="shared" si="2"/>
-        <v>42213.407361111109</v>
-      </c>
-      <c r="G81" s="3">
-        <f t="shared" ref="G81" si="4">A81+7</f>
-        <v>42213.407361111109</v>
+      <c r="E83" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="3">
+        <f t="shared" ref="F83" si="6">A83+7</f>
+        <v>42220.407141203701</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" ref="G83" si="7">A83+7</f>
+        <v>42220.407141203701</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G22">
+  <sortState ref="A2:G82">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
